--- a/src/main/webapp/resources/xls/inventorydata.xlsx
+++ b/src/main/webapp/resources/xls/inventorydata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>LGIT P/N</t>
   </si>
@@ -55,11 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재물조사 조회/수정용 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSL Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,21 +539,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -557,7 +566,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -565,7 +574,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -573,7 +582,7 @@
       <c r="F3" s="1"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -584,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>0</v>
@@ -603,6 +612,9 @@
       </c>
       <c r="J4" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
